--- a/spec/ConvSpec-subjectThesaurus-v1.7.xlsx
+++ b/spec/ConvSpec-subjectThesaurus-v1.7.xlsx
@@ -83,7 +83,7 @@
     <t>do not create bf:code</t>
   </si>
   <si>
-    <t>Subject Thesaurus indicator spec - v1.7, 09/14/2021</t>
+    <t>Subject Thesaurus indicator spec - v1.7, 10/21/2021</t>
   </si>
 </sst>
 </file>
@@ -127,18 +127,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -168,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -192,8 +186,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -502,13 +503,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39.54296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" style="13" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
@@ -519,19 +522,20 @@
       <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -540,7 +544,7 @@
       <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -551,7 +555,7 @@
       <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -562,7 +566,7 @@
       <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -573,7 +577,7 @@
       <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -584,7 +588,7 @@
       <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -593,7 +597,7 @@
       <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -604,7 +608,7 @@
       <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -615,7 +619,7 @@
       <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
     </row>
